--- a/new_models_experiments/4uav_60v/inputs_to_load.xlsx
+++ b/new_models_experiments/4uav_60v/inputs_to_load.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9845BC-3B4B-4239-9FDD-B2C6131AFD27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39A7ABA-26F8-457E-810E-BA72941DA49F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8724" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,10 +221,10 @@
     <t>combination_run_from_file</t>
   </si>
   <si>
-    <t>em</t>
-  </si>
-  <si>
     <t>combination-results-4uav-60v.csv</t>
+  </si>
+  <si>
+    <t>ce-rlm</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1373,7 +1373,7 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -1564,7 +1564,7 @@
         <v>59</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1580,7 +1580,7 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
